--- a/medicine/Médecine vétérinaire/Gnathostoma_spinigerum/Gnathostoma_spinigerum.xlsx
+++ b/medicine/Médecine vétérinaire/Gnathostoma_spinigerum/Gnathostoma_spinigerum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnathostoma spinigerum est une espèce de nématodes parasites qui cause chez l'homme la gnathostomose. Ce parasite a un cycle complexe qui comprend plusieurs hôtes. Les œufs éclosent en eau douce et les larves sont ingérées par des puces d'eau du genre Cyclops. Celles-ci sont ensuite ingérées par des petits poissons, et le parasite termine finalement dans l'estomac d'un carnivore, généralement chien ou chat. La larve migre alors dans le corps de l'animal après avoir traversé la muqueuse durant environ trois mois avant de revenir dans la paroi de l'estomac, où elle va atteindre sa maturité et pondre des œufs qui iront dans les fèces, et éventuellement dans de l'eau afin que le cycle recommence.
 </t>
